--- a/SalesDataDisplay/Reports/template.xlsx
+++ b/SalesDataDisplay/Reports/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHPSandbox\SalesDataDisplay\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D532D2-77B1-43BB-A090-25E692F84BDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A4153A-2A80-418A-AB90-AA64D6212B10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注文情報" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
   <si>
     <t>注文情報一覧</t>
     <rPh sb="0" eb="4">
@@ -102,6 +102,28 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリCODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <rPh sb="0" eb="3">
+      <t>ネンゲツヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小計</t>
+    <rPh sb="0" eb="2">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -154,20 +176,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,157 +570,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AQ8"/>
+  <dimension ref="B1:AR8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:AA2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:43">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:44">
+      <c r="W1" s="5"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="2:44">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="X2" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-    </row>
-    <row r="3" spans="2:43">
-      <c r="B3" s="3" t="s">
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="2"/>
+    </row>
+    <row r="3" spans="2:44">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="X3" s="2" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-    </row>
-    <row r="4" spans="2:43">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="X4" s="2" t="s">
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="2"/>
+    </row>
+    <row r="4" spans="2:44">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2" t="s">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2" t="s">
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-    </row>
-    <row r="6" spans="2:43">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="2"/>
+    </row>
+    <row r="5" spans="2:44">
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="2:44">
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -612,16 +755,12 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="2:43">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="2:44">
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -638,16 +777,12 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:43">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="8" spans="2:44">
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -659,35 +794,26 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AB4:AM4"/>
+  <mergeCells count="13">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:U4"/>
     <mergeCell ref="AN4:AQ4"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AQ2"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AI3:AQ3"/>
     <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:U7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:U4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AM4"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -697,38 +823,512 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2607FBEB-87CD-456B-BA65-A4942A0A214D}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:BK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:63">
+      <c r="W1" s="5"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="2:63">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+    </row>
+    <row r="3" spans="2:63">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+    </row>
+    <row r="4" spans="2:63">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="6" spans="2:63">
+      <c r="B6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="2:63">
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="BE3:BK3"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="AE7:AH7"/>
+    <mergeCell ref="AI7:AO7"/>
+    <mergeCell ref="AB2:AM2"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AO3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:U4"/>
+    <mergeCell ref="X2:AA2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2982DCA-EC5F-4441-B1AD-2CDC80628E7E}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AQ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:AA3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:43">
+      <c r="W1" s="5"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="2:43">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+    </row>
+    <row r="3" spans="2:43">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+    </row>
+    <row r="4" spans="2:43">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+    </row>
+    <row r="5" spans="2:43">
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:U4"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AQ2"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AI3:AQ3"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043FA4CF-4F07-4495-947F-A4725FD7C002}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:21">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:U4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SalesDataDisplay/Reports/template.xlsx
+++ b/SalesDataDisplay/Reports/template.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHPSandbox\SalesDataDisplay\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A4153A-2A80-418A-AB90-AA64D6212B10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A44D805-3686-477A-B6A4-005542549FFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="注文情報" sheetId="1" r:id="rId1"/>
-    <sheet name="支店別注文情報" sheetId="2" r:id="rId2"/>
-    <sheet name="カテゴリ別注文情報" sheetId="3" r:id="rId3"/>
-    <sheet name="顧客別注文情報" sheetId="4" r:id="rId4"/>
+    <sheet name="表紙" sheetId="6" r:id="rId1"/>
+    <sheet name="注文情報" sheetId="1" r:id="rId2"/>
+    <sheet name="支店別注文情報" sheetId="2" r:id="rId3"/>
+    <sheet name="カテゴリ別注文情報" sheetId="3" r:id="rId4"/>
+    <sheet name="顧客別注文情報" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>注文情報一覧</t>
     <rPh sb="0" eb="4">
@@ -124,6 +125,30 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>性</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文一覧表　XXXX年度</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -211,30 +236,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -248,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -256,6 +257,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,29 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -569,12 +555,409 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63343234-81D3-4801-974A-CCBF21BA00A2}">
+  <dimension ref="B2:U19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:21">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:U19"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AR8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AA2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <sheetData>
@@ -586,144 +969,144 @@
       <c r="AA1" s="3"/>
     </row>
     <row r="2" spans="2:44">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="9" t="s">
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
       <c r="AR2" s="2"/>
     </row>
     <row r="3" spans="2:44">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7" t="s">
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="9" t="s">
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9" t="s">
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
       <c r="AR3" s="2"/>
     </row>
     <row r="4" spans="2:44">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7" t="s">
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="9" t="s">
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9" t="s">
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
       <c r="AR4" s="2"/>
     </row>
     <row r="5" spans="2:44">
@@ -821,441 +1204,215 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2607FBEB-87CD-456B-BA65-A4942A0A214D}">
-  <dimension ref="B1:BK7"/>
+  <dimension ref="B1:CE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="2:63">
-      <c r="W1" s="5"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="2:63">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:83">
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+    </row>
+    <row r="2" spans="2:83">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="17" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="18" t="s">
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-    </row>
-    <row r="3" spans="2:63">
-      <c r="B3" s="8" t="s">
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+    </row>
+    <row r="3" spans="2:83">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="7" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
       <c r="AT3" s="9"/>
       <c r="AU3" s="9"/>
       <c r="AV3" s="9"/>
       <c r="AW3" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9"/>
       <c r="AZ3" s="9"/>
-      <c r="BA3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
+      <c r="BA3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
       <c r="BE3" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF3" s="9"/>
       <c r="BG3" s="9"/>
       <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-    </row>
-    <row r="4" spans="2:63">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="6" spans="2:63">
-      <c r="B6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" spans="2:63">
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="9" t="s">
+      <c r="BI3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9" t="s">
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="7" t="s">
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="9" t="s">
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="9"/>
+      <c r="BX3" s="9"/>
+      <c r="BY3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
+      <c r="BZ3" s="11"/>
+      <c r="CA3" s="11"/>
+      <c r="CB3" s="11"/>
+      <c r="CC3" s="11"/>
+      <c r="CD3" s="11"/>
+      <c r="CE3" s="11"/>
+    </row>
+    <row r="4" spans="2:83">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="BE3:BK3"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="AE7:AH7"/>
-    <mergeCell ref="AI7:AO7"/>
-    <mergeCell ref="AB2:AM2"/>
-    <mergeCell ref="AK3:AN3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AO3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
+  <mergeCells count="13">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:U4"/>
-    <mergeCell ref="X2:AA2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2982DCA-EC5F-4441-B1AD-2CDC80628E7E}">
-  <dimension ref="B1:AQ5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:AA3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="2:43">
-      <c r="W1" s="5"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="2:43">
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-    </row>
-    <row r="3" spans="2:43">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-    </row>
-    <row r="4" spans="2:43">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-    </row>
-    <row r="5" spans="2:43">
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:U4"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AQ2"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AI3:AQ3"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="BH2:BK2"/>
+    <mergeCell ref="AV2:BG2"/>
+    <mergeCell ref="BE3:BH3"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BI3:BP3"/>
+    <mergeCell ref="BQ3:BT3"/>
+    <mergeCell ref="BU3:BX3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BY3:CE3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,70 +1421,356 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043FA4CF-4F07-4495-947F-A4725FD7C002}">
-  <dimension ref="B2:U4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2982DCA-EC5F-4441-B1AD-2CDC80628E7E}">
+  <dimension ref="B1:CA5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:21">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:79">
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+    </row>
+    <row r="2" spans="2:79">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+    </row>
+    <row r="3" spans="2:79">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV3" s="11"/>
+      <c r="BW3" s="11"/>
+      <c r="BX3" s="11"/>
+      <c r="BY3" s="11"/>
+      <c r="BZ3" s="11"/>
+      <c r="CA3" s="11"/>
+    </row>
+    <row r="4" spans="2:79">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+    </row>
+    <row r="5" spans="2:79">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:U4"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="BQ3:BT3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="BU3:CA3"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BE3:BL3"/>
+    <mergeCell ref="BM3:BP3"/>
+    <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="AW3:AZ3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043FA4CF-4F07-4495-947F-A4725FD7C002}">
+  <dimension ref="B1:BT4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="2:72">
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+    </row>
+    <row r="2" spans="2:72">
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+    </row>
+    <row r="3" spans="2:72">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+    </row>
+    <row r="4" spans="2:72">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="BQ3:BT3"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:U4"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BF2:BI2"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BE3:BH3"/>
+    <mergeCell ref="BI3:BP3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
